--- a/datastore/category.xlsx
+++ b/datastore/category.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junyoung\Dropbox\My Dropbox\SomaNews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junyoung\Documents\GitHub\somanews-clustering\datastore\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="848">
   <si>
     <t xml:space="preserve">건강·의학 &gt; </t>
   </si>
@@ -2532,6 +2532,42 @@
   </si>
   <si>
     <t>종합</t>
+  </si>
+  <si>
+    <t>건강</t>
+  </si>
+  <si>
+    <t>인물</t>
+  </si>
+  <si>
+    <t>스포츠</t>
+  </si>
+  <si>
+    <t>사설</t>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>category</t>
@@ -2540,18 +2576,6 @@
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강</t>
-  </si>
-  <si>
-    <t>인물</t>
-  </si>
-  <si>
-    <t>스포츠</t>
-  </si>
-  <si>
-    <t>사설</t>
   </si>
 </sst>
 </file>
@@ -2969,10 +2993,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -2980,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3868,7 +3892,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3876,7 +3900,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3884,7 +3908,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3916,7 +3940,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3940,7 +3964,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3996,7 +4020,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4196,7 +4220,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4204,7 +4228,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4212,7 +4236,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4228,7 +4252,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4340,7 +4364,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4348,7 +4372,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4356,7 +4380,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4372,7 +4396,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4668,7 +4692,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4676,7 +4700,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5348,7 +5372,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5356,7 +5380,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5396,7 +5420,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5444,7 +5468,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5452,7 +5476,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5508,7 +5532,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5524,7 +5548,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5532,7 +5556,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5540,7 +5564,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5548,7 +5572,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5556,7 +5580,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5564,7 +5588,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5580,7 +5604,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5588,7 +5612,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5596,7 +5620,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5604,7 +5628,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5612,7 +5636,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5620,7 +5644,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5628,7 +5652,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5636,7 +5660,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5644,7 +5668,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5652,7 +5676,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5660,7 +5684,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5668,7 +5692,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5676,7 +5700,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5684,7 +5708,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5692,7 +5716,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5700,7 +5724,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5708,7 +5732,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5716,7 +5740,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5724,7 +5748,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5732,7 +5756,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5740,7 +5764,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5748,7 +5772,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5756,7 +5780,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5764,7 +5788,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5772,7 +5796,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5780,7 +5804,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5788,7 +5812,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5796,7 +5820,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5804,7 +5828,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5812,7 +5836,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5820,7 +5844,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5828,7 +5852,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5836,7 +5860,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5844,7 +5868,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5852,7 +5876,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5860,7 +5884,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5868,7 +5892,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5876,7 +5900,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5884,7 +5908,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5892,7 +5916,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5900,7 +5924,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5908,7 +5932,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5916,7 +5940,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5924,7 +5948,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5932,7 +5956,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5940,7 +5964,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5948,7 +5972,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5956,7 +5980,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5964,7 +5988,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5972,7 +5996,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5980,7 +6004,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5988,7 +6012,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5996,7 +6020,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6004,7 +6028,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6012,7 +6036,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6020,7 +6044,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6028,7 +6052,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6036,7 +6060,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6044,7 +6068,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6052,7 +6076,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6060,7 +6084,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6068,7 +6092,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6076,7 +6100,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6084,7 +6108,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6092,7 +6116,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6100,7 +6124,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6108,7 +6132,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6116,7 +6140,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6124,7 +6148,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6132,7 +6156,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6140,7 +6164,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6148,7 +6172,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6156,7 +6180,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6188,7 +6212,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6492,7 +6516,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6548,7 +6572,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6556,7 +6580,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6564,7 +6588,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6572,7 +6596,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6652,7 +6676,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6788,7 +6812,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6796,7 +6820,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6812,7 +6836,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6820,7 +6844,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6828,7 +6852,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6836,7 +6860,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6844,7 +6868,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6852,7 +6876,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6860,7 +6884,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7108,7 +7132,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7204,7 +7228,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7228,7 +7252,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7236,7 +7260,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7244,7 +7268,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7252,7 +7276,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7260,7 +7284,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7268,7 +7292,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7276,7 +7300,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7284,7 +7308,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7292,7 +7316,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7300,7 +7324,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7308,7 +7332,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7316,7 +7340,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7324,7 +7348,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7332,7 +7356,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7340,7 +7364,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7348,7 +7372,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7356,7 +7380,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7364,7 +7388,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7372,7 +7396,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7380,7 +7404,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7388,7 +7412,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7396,7 +7420,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7404,7 +7428,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7412,7 +7436,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7420,7 +7444,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7428,7 +7452,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7436,7 +7460,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7444,7 +7468,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7452,7 +7476,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7460,7 +7484,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7468,7 +7492,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7476,7 +7500,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7484,7 +7508,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7492,7 +7516,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7500,7 +7524,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7508,7 +7532,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7516,7 +7540,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7524,7 +7548,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7532,7 +7556,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7540,7 +7564,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7548,7 +7572,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7556,7 +7580,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7564,7 +7588,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7572,7 +7596,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7580,7 +7604,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7588,7 +7612,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7596,7 +7620,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7604,7 +7628,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7612,7 +7636,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7620,7 +7644,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7628,7 +7652,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7636,7 +7660,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7644,7 +7668,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7652,7 +7676,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7660,7 +7684,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7668,7 +7692,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7676,7 +7700,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7684,7 +7708,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7692,7 +7716,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7700,7 +7724,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7708,7 +7732,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7716,7 +7740,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7724,7 +7748,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7732,7 +7756,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7740,7 +7764,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7748,7 +7772,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7756,7 +7780,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7764,7 +7788,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7772,7 +7796,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7780,7 +7804,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7788,7 +7812,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7796,7 +7820,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7804,7 +7828,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7812,7 +7836,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7820,7 +7844,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7828,7 +7852,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7836,7 +7860,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7844,7 +7868,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7852,7 +7876,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7860,7 +7884,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7868,7 +7892,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7876,7 +7900,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7884,7 +7908,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7892,7 +7916,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7900,7 +7924,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7908,7 +7932,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7916,7 +7940,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7924,7 +7948,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7932,7 +7956,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7940,7 +7964,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7948,7 +7972,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7956,7 +7980,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7964,7 +7988,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7972,7 +7996,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7980,7 +8004,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7988,7 +8012,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7996,7 +8020,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8124,7 +8148,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8356,7 +8380,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8364,7 +8388,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8372,7 +8396,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8388,7 +8412,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9004,7 +9028,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9642,5 +9666,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datastore/category.xlsx
+++ b/datastore/category.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="857">
   <si>
     <t xml:space="preserve">건강·의학 &gt; </t>
   </si>
@@ -2532,6 +2532,10 @@
   </si>
   <si>
     <t>종합</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>건강</t>
@@ -2570,11 +2574,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2984,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B834"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2993,10 +3029,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3004,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3252,7 +3288,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>855</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3892,7 +3928,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3900,7 +3936,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3908,7 +3944,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3940,7 +3976,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -3964,7 +4000,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4020,7 +4056,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4220,7 +4256,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4228,7 +4264,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4236,7 +4272,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4252,7 +4288,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4364,7 +4400,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4372,7 +4408,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4380,7 +4416,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4396,7 +4432,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4628,7 +4664,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>185</v>
+        <v>848</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4692,7 +4728,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4700,7 +4736,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4988,7 +5024,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>185</v>
+        <v>847</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4996,7 +5032,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>185</v>
+        <v>848</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5372,7 +5408,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5380,7 +5416,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5420,7 +5456,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5468,7 +5504,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5476,7 +5512,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5532,7 +5568,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5548,7 +5584,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5556,7 +5592,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5564,7 +5600,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5572,7 +5608,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5580,7 +5616,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5588,7 +5624,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5604,7 +5640,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5612,7 +5648,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5620,7 +5656,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5628,7 +5664,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5636,7 +5672,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5644,7 +5680,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5652,7 +5688,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5660,7 +5696,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5668,7 +5704,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5676,7 +5712,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5684,7 +5720,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5692,7 +5728,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5700,7 +5736,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5708,7 +5744,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5716,7 +5752,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5724,7 +5760,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5732,7 +5768,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5740,7 +5776,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5748,7 +5784,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5756,7 +5792,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5764,7 +5800,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5772,7 +5808,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5780,7 +5816,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5788,7 +5824,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5796,7 +5832,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5804,7 +5840,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5812,7 +5848,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5820,7 +5856,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5828,7 +5864,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5836,7 +5872,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5844,7 +5880,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5852,7 +5888,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5860,7 +5896,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5868,7 +5904,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5876,7 +5912,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5884,7 +5920,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5892,7 +5928,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5900,7 +5936,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5908,7 +5944,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5916,7 +5952,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5924,7 +5960,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5932,7 +5968,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5940,7 +5976,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5948,7 +5984,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5956,7 +5992,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5964,7 +6000,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5972,7 +6008,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5980,7 +6016,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5988,7 +6024,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5996,7 +6032,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6004,7 +6040,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6012,7 +6048,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6020,7 +6056,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6028,7 +6064,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6036,7 +6072,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6044,7 +6080,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6052,7 +6088,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6060,7 +6096,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6068,7 +6104,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6076,7 +6112,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6084,7 +6120,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6092,7 +6128,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6100,7 +6136,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6108,7 +6144,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6116,7 +6152,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6124,7 +6160,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6132,7 +6168,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6140,7 +6176,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6148,7 +6184,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6156,7 +6192,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6164,7 +6200,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6172,7 +6208,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6180,7 +6216,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6212,7 +6248,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6300,7 +6336,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>398</v>
+        <v>851</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6308,7 +6344,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>398</v>
+        <v>851</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6316,7 +6352,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>398</v>
+        <v>850</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6324,7 +6360,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>398</v>
+        <v>849</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6332,7 +6368,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>398</v>
+        <v>850</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6340,7 +6376,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>398</v>
+        <v>849</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6388,7 +6424,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>398</v>
+        <v>847</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6516,7 +6552,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6572,7 +6608,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6580,7 +6616,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6588,7 +6624,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6596,7 +6632,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6676,7 +6712,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6764,7 +6800,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>398</v>
+        <v>852</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6812,7 +6848,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6820,7 +6856,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6836,7 +6872,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6844,7 +6880,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6852,7 +6888,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6860,7 +6896,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6868,7 +6904,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6876,7 +6912,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6884,7 +6920,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7124,7 +7160,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>398</v>
+        <v>853</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7132,7 +7168,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7228,7 +7264,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7252,7 +7288,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7260,7 +7296,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7268,7 +7304,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7276,7 +7312,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7284,7 +7320,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7292,7 +7328,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7300,7 +7336,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7308,7 +7344,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7316,7 +7352,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7324,7 +7360,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7332,7 +7368,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7340,7 +7376,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7348,7 +7384,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7356,7 +7392,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7364,7 +7400,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7372,7 +7408,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7380,7 +7416,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7388,7 +7424,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7396,7 +7432,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7404,7 +7440,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7412,7 +7448,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7420,7 +7456,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7428,7 +7464,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7436,7 +7472,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7444,7 +7480,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7452,7 +7488,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7460,7 +7496,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7468,7 +7504,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7476,7 +7512,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7484,7 +7520,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7492,7 +7528,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7500,7 +7536,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7508,7 +7544,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7516,7 +7552,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7524,7 +7560,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7532,7 +7568,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7540,7 +7576,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7548,7 +7584,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7556,7 +7592,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7564,7 +7600,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7572,7 +7608,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7580,7 +7616,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7588,7 +7624,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7596,7 +7632,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7604,7 +7640,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7612,7 +7648,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7620,7 +7656,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7628,7 +7664,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7636,7 +7672,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7644,7 +7680,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7652,7 +7688,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7660,7 +7696,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7668,7 +7704,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7676,7 +7712,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7684,7 +7720,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7692,7 +7728,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7700,7 +7736,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7708,7 +7744,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7716,7 +7752,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7724,7 +7760,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7732,7 +7768,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7740,7 +7776,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7748,7 +7784,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7756,7 +7792,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7764,7 +7800,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7772,7 +7808,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7780,7 +7816,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7788,7 +7824,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7796,7 +7832,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7804,7 +7840,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7812,7 +7848,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7820,7 +7856,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7828,7 +7864,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7836,7 +7872,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7844,7 +7880,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7852,7 +7888,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7860,7 +7896,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7868,7 +7904,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7876,7 +7912,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7884,7 +7920,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7892,7 +7928,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7900,7 +7936,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7908,7 +7944,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7916,7 +7952,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7924,7 +7960,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7932,7 +7968,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7940,7 +7976,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7948,7 +7984,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7956,7 +7992,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="622" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7964,7 +8000,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7972,7 +8008,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7980,7 +8016,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7988,7 +8024,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7996,7 +8032,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="627" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8004,7 +8040,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="628" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8012,7 +8048,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8020,7 +8056,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="630" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8148,7 +8184,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8380,7 +8416,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8388,7 +8424,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8396,7 +8432,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8412,7 +8448,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8684,7 +8720,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>692</v>
+        <v>852</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -8924,7 +8960,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>692</v>
+        <v>847</v>
       </c>
     </row>
     <row r="743" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9012,7 +9048,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>398</v>
+        <v>854</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9028,7 +9064,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">

--- a/datastore/category.xlsx
+++ b/datastore/category.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="859">
   <si>
     <t xml:space="preserve">건강·의학 &gt; </t>
   </si>
@@ -2611,6 +2611,14 @@
   </si>
   <si>
     <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3020,7 +3028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B834"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3768,7 +3778,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7232,7 +7242,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9304,7 +9314,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
